--- a/EX_W9_data.xlsx
+++ b/EX_W9_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matteo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matteo/Projects/PSSP_notebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CC4D81-CBE6-B640-A25E-87379217B8C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F1560F-F73E-C644-B1B7-C0009D52C8B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{A1C123CF-BBA9-FA40-A565-F4C76E1B9435}"/>
   </bookViews>
@@ -57,10 +57,10 @@
     <t>L</t>
   </si>
   <si>
-    <t>MA(L)</t>
+    <t>NA(L)</t>
   </si>
   <si>
-    <t>MB(L)</t>
+    <t>NB(L)</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/EX_W9_data.xlsx
+++ b/EX_W9_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matteo/Projects/PSSP_notebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F1560F-F73E-C644-B1B7-C0009D52C8B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE7D7B4-D278-F742-B07D-029AE2E68664}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{A1C123CF-BBA9-FA40-A565-F4C76E1B9435}"/>
   </bookViews>
@@ -419,12 +419,12 @@
   <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -815,7 +815,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>0.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="B36">
         <v>3777.7</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>0.5</v>
+        <v>10.5</v>
       </c>
       <c r="B37">
         <v>3830.9</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>0.8</v>
+        <v>10.8</v>
       </c>
       <c r="B38">
         <v>3744.1</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>1.1000000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="B39">
         <v>3841.3</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>1.4</v>
+        <v>11.4</v>
       </c>
       <c r="B40">
         <v>3795.7</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>1.7</v>
+        <v>11.7</v>
       </c>
       <c r="B41">
         <v>3791.7</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>2.2999999999999998</v>
+        <v>12.3</v>
       </c>
       <c r="B43">
         <v>3819.6</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>2.6</v>
+        <v>12.6</v>
       </c>
       <c r="B44">
         <v>3804.6</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>2.9</v>
+        <v>12.9</v>
       </c>
       <c r="B45">
         <v>3794.2</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>3.2</v>
+        <v>13.2</v>
       </c>
       <c r="B46">
         <v>3906.1</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>3.5</v>
+        <v>13.5</v>
       </c>
       <c r="B47">
         <v>3878.8</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>3.8</v>
+        <v>13.8</v>
       </c>
       <c r="B48">
         <v>3903.7</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>4.0999999999999996</v>
+        <v>14.1</v>
       </c>
       <c r="B49">
         <v>3916.4</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>4.4000000000000004</v>
+        <v>14.4</v>
       </c>
       <c r="B50">
         <v>3889.9</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>4.7</v>
+        <v>14.7</v>
       </c>
       <c r="B51">
         <v>3920.3</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>5.3</v>
+        <v>15.3</v>
       </c>
       <c r="B53">
         <v>3921.8</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>5.6</v>
+        <v>15.6</v>
       </c>
       <c r="B54">
         <v>3928</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>5.9</v>
+        <v>15.9</v>
       </c>
       <c r="B55">
         <v>3858.5</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>6.2</v>
+        <v>16.2</v>
       </c>
       <c r="B56">
         <v>3834.2</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>6.5</v>
+        <v>16.5</v>
       </c>
       <c r="B57">
         <v>3915.9</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>6.8</v>
+        <v>16.8</v>
       </c>
       <c r="B58">
         <v>3838.7</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>7.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="B59">
         <v>3914.3</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>7.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="B60">
         <v>3883.1</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>7.7</v>
+        <v>17.7</v>
       </c>
       <c r="B61">
         <v>3907.7</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>8.3000000000000007</v>
+        <v>18.3</v>
       </c>
       <c r="B63">
         <v>3895.8</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>8.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="B64">
         <v>3908.4</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>8.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="B65">
         <v>3837.7</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>9.1999999999999993</v>
+        <v>19.2</v>
       </c>
       <c r="B66">
         <v>3890.9</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>9.5</v>
+        <v>19.5</v>
       </c>
       <c r="B67">
         <v>3939.5</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>9.8000000000000007</v>
+        <v>19.8</v>
       </c>
       <c r="B68">
         <v>3851</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>0.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="B69">
         <v>3889.4</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>0.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="B70">
         <v>3914.9</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>0.7</v>
+        <v>20.7</v>
       </c>
       <c r="B71">
         <v>3873.2</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>1.3</v>
+        <v>21.3</v>
       </c>
       <c r="B73">
         <v>3920</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>1.6</v>
+        <v>21.6</v>
       </c>
       <c r="B74">
         <v>3864.1</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>1.9</v>
+        <v>21.9</v>
       </c>
       <c r="B75">
         <v>3904.5</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>2.2000000000000002</v>
+        <v>22.2</v>
       </c>
       <c r="B76">
         <v>3942.1</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>2.5</v>
+        <v>22.5</v>
       </c>
       <c r="B77">
         <v>3905.3</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>2.8</v>
+        <v>22.8</v>
       </c>
       <c r="B78">
         <v>3927.9</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>3.1</v>
+        <v>23.1</v>
       </c>
       <c r="B79">
         <v>3944.5</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>3.4</v>
+        <v>23.4</v>
       </c>
       <c r="B80">
         <v>3938.6</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>3.7</v>
+        <v>23.7</v>
       </c>
       <c r="B81">
         <v>3856.8</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>4.3</v>
+        <v>24.3</v>
       </c>
       <c r="B83">
         <v>3859.6</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>4.5999999999999996</v>
+        <v>24.6</v>
       </c>
       <c r="B84">
         <v>3845.4</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>4.9000000000000004</v>
+        <v>24.9</v>
       </c>
       <c r="B85">
         <v>3843.2</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>5.2</v>
+        <v>25.2</v>
       </c>
       <c r="B86">
         <v>3911</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>5.5</v>
+        <v>25.5</v>
       </c>
       <c r="B87">
         <v>3912.5</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>5.8</v>
+        <v>25.8</v>
       </c>
       <c r="B88">
         <v>3948.3</v>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>6.1</v>
+        <v>26.1</v>
       </c>
       <c r="B89">
         <v>3927</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>6.4</v>
+        <v>26.4</v>
       </c>
       <c r="B90">
         <v>3877.2</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>6.7</v>
+        <v>26.7</v>
       </c>
       <c r="B91">
         <v>3899.7</v>
@@ -1442,7 +1442,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>7.3</v>
+        <v>27.3</v>
       </c>
       <c r="B93">
         <v>3927.2</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>7.6</v>
+        <v>27.6</v>
       </c>
       <c r="B94">
         <v>3856.2</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>7.9</v>
+        <v>27.9</v>
       </c>
       <c r="B95">
         <v>3928.8</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>8.1999999999999993</v>
+        <v>28.2</v>
       </c>
       <c r="B96">
         <v>3936.1</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>8.5</v>
+        <v>28.5</v>
       </c>
       <c r="B97">
         <v>3928.7</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>8.8000000000000007</v>
+        <v>28.8</v>
       </c>
       <c r="B98">
         <v>3881.7</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>9.1</v>
+        <v>29.1</v>
       </c>
       <c r="B99">
         <v>3910.2</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>9.4</v>
+        <v>29.4</v>
       </c>
       <c r="B100">
         <v>3897</v>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>9.6999999999999993</v>
+        <v>29.7</v>
       </c>
       <c r="B101">
         <v>3853</v>
